--- a/docs/PT2/PT2_13.11.2024_output.xlsx
+++ b/docs/PT2/PT2_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731606759.7694376</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731606763.721499</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606759.7694376.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606763.721499.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.88</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.84</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.960000000000008</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731606763.73646</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731606766.3192658</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606763.73646.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606766.3192658.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.84</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.7</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731606768.9476233</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731606769.464836</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606768.9476233.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606769.464836.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.91</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.04</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731606773.7285933</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731606775.6703074</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606773.7285933.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606775.6703074.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.26</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.0700000000000216</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731606776.412019</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731606776.7244954</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606776.412019.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606776.7244954.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.42</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>135.39</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731606776.9777937</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731606779.995456</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606776.9777937.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606779.995456.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>135.58</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>136.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.5699999999999932</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731606780.011383</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731606781.3513613</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606780.011383.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606781.3513613.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>136.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.42</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731606782.0534954</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731606783.1583698</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606782.0534954.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606783.1583698.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.41</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1099999999999852</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731606787.0685852</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731606792.63725</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606787.0685852.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606792.63725.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6982</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7022</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-40</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731606792.6522074</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731606794.870096</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606792.6522074.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606794.870096.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7022</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7018</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731606796.7498827</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731606798.673498</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606796.7498827.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606798.673498.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>7020.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>7011</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731606805.9097056</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731606806.2563038</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606805.9097056.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606806.2563038.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>7020.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>7025.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731606806.59713</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731606806.6928735</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606806.59713.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606806.6928735.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>7017.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>7025.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>8</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731606807.2953675</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731606809.0488756</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606807.2953675.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606809.0488756.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>7037</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>9.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731606811.2400277</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731606811.2400277.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+          <t>./test_images/LKOH1731606811.2400277.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>7033.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>7033.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>7034</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731606812.3587573</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731606814.5672145</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606812.3587573.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606814.5672145.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>485.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>487.55</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731606815.2213538</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731606816.217736</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606815.2213538.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606816.217736.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>487.35</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>488.65</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.299999999999955</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731606816.6756096</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731606817.4316447</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606816.6756096.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606817.4316447.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>488.45</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>489</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731606817.688412</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731606817.745699</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606817.688412.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606817.745699.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>489</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>489.95</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731606830.4857435</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731606833.0711887</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606830.4857435.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606833.0711887.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>490.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>488.75</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1571,95 +1707,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731606839.5379963</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731606839.5379963.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+          <t>./test_images/ROSN1731606839.5379963.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>492.85</v>
       </c>
-      <c r="J23" t="n">
-        <v>492.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731606840.0548017</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731606842.3004882</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606840.0548017.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606842.3004882.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>924</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>924</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731606846.1668382</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731606846.4013028</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606846.1668382.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606846.4013028.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>927.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>929.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731606847.7896116</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731606848.6443686</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606847.7896116.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606848.6443686.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>930</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>928.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731606863.7306418</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731606866.5732071</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606863.7306418.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606866.5732071.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>930.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>933</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731606868.2145672</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731606869.5108109</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606868.2145672.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606869.5108109.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.685</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>37.825</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731606870.767174</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731606871.5369606</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606870.767174.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606871.5369606.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>37.755</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>37.905</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731606873.216195</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731606874.1259162</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606873.216195.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606874.1259162.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>37.89</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.105</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2149999999999963</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731606876.0375574</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731606879.2392044</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606876.0375574.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606879.2392044.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.32</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.35</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731606883.3919287</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731606885.4937756</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606883.3919287.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606885.4937756.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.285</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.12</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1649999999999991</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731606885.5087352</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731606887.231774</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606885.5087352.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606887.231774.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>38.12</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>38.1</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731606888.4317658</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731606888.5284078</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606888.4317658.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606888.5284078.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.145</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.13</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731606893.0720453</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731606893.294364</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606893.0720453.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606893.294364.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.385</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>38.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731606893.393294</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731606893.6548505</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606893.393294.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606893.6548505.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>38.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>38.42</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731606894.2422261</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731606895.5060787</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606894.2422261.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606895.5060787.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>38.44</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>38.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2343,95 +2569,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731606895.6016023</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731606895.6016023.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+          <t>./test_images/MAGN1731606895.6016023.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>38.49</v>
       </c>
-      <c r="J38" t="n">
-        <v>38.49</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731606896.5044382</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731606898.131591</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606896.5044382.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606898.131591.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1232.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1234.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731606898.783342</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731606899.483272</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606898.783342.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606899.483272.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1227.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1231.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>4.200000000000045</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731606901.2850509</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731606901.8706367</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606901.2850509.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606901.8706367.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1229.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1229.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731606904.0134108</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731606907.164572</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606904.0134108.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606907.164572.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1234</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731606909.7102637</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731606911.2786894</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606909.7102637.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606911.2786894.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1236.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1238</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731606913.7381532</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731606915.6515179</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606913.7381532.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606915.6515179.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1219.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1217.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731606916.7102757</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731606920.2718637</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606916.7102757.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606920.2718637.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1217.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1226.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-9.399999999999864</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731606922.0947573</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731606923.015111</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606922.0947573.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606923.015111.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1230</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1232</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731606924.959927</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731606927.3339782</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606924.959927.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606927.3339782.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>80.88</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>81</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731606927.842738</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731606929.143465</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606927.842738.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606929.143465.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>80.98999999999999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>80.95</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731606929.2441897</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731606930.3397217</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606929.2441897.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606930.3397217.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>81.14</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2900000000000063</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731606931.6011117</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731606934.4004724</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606931.6011117.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606934.4004724.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>81.19</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>81.05</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731606942.443603</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731606944.0426378</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606942.443603.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606944.0426378.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>80.29000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>80.20999999999999</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731606945.031138</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731606948.3293524</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606945.031138.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606948.3293524.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>80.16</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.2400000000000091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731606950.454028</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731606951.239692</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606950.454028.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606951.239692.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>80.58</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>80.73</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731606952.1624582</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731606952.333141</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606952.1624582.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606952.333141.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>14.146</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>14.187</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.04099999999999859</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731606952.809562</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731606955.116645</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606952.809562.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606955.116645.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>14.151</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>14.184</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03299999999999947</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731606957.036734</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731606957.1304479</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606957.036734.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606957.1304479.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>14.215</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>14.226</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731606957.18533</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731606958.167239</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606957.18533.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606958.167239.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.212</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.235</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.02299999999999969</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731606959.5784984</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731606962.4619358</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606959.5784984.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606962.4619358.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.249</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.206</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.04300000000000104</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731606972.348525</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731606973.0472028</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606972.348525.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606973.0472028.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.165</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.177</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.01200000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731606978.2283542</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731606978.4454625</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606978.2283542.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606978.4454625.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>14.268</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>14.353</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.08499999999999908</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3531,95 +3895,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731606979.53022</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731606979.53022.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+          <t>./test_images/AFKS1731606979.53022.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>14.355</v>
       </c>
-      <c r="J61" t="n">
-        <v>14.355</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731606983.4420803</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731606987.1935587</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606983.4420803.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606987.1935587.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>104.23</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>105.17</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.9399999999999977</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.8999999999999999</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731606987.2095096</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731606988.6450958</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606987.2095096.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606988.6450958.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>105.17</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>105.9</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731606988.8950763</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731606991.4354968</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606988.8950763.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606991.4354968.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>105.5</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>105.38</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3731,51 +4119,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731606993.486503</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731607000.7673728</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606993.486503.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607000.7673728.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>105.69</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>104.94</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -3783,51 +4177,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731607000.7833002</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731607004.3877273</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607000.7833002.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607004.3877273.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>104.94</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>105.29</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.3500000000000085</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3835,51 +4235,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731607006.5308394</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731607007.6509826</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607006.5308394.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607007.6509826.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>105.65</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>106.03</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731607008.9368756</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731607010.9398675</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607008.9368756.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607010.9398675.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>347.75</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>348.22</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.4700000000000273</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3939,51 +4351,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731607016.6897638</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731607018.234834</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607016.6897638.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607018.234834.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>351.51</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>351.88</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3991,51 +4409,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731607024.5208519</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731607027.0672452</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607024.5208519.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607027.0672452.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>350.13</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>349.03</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731607027.7255535</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731607028.8130167</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607027.7255535.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607028.8130167.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>349.34</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>350.18</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.8400000000000318</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731607034.9348838</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731607037.448468</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607034.9348838.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607037.448468.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2775.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2778.7</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>2.799999999999727</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731607039.0582876</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731607039.8687267</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607039.0582876.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607039.8687267.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2780</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2782</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4199,51 +4641,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731607041.7436938</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731607044.9601722</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607041.7436938.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607044.9601722.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2786.55</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4251,51 +4699,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731607051.021003</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731607053.2449462</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607051.021003.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607053.2449462.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2779.2</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2778.45</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.75</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4303,51 +4757,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731607054.630383</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731607056.7409527</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607054.630383.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607056.7409527.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2777.1</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2781.1</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-4</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4355,51 +4815,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731607057.9418032</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731607058.0355458</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607057.9418032.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607058.0355458.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2787.05</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2786.45</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.6000000000003638</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4407,51 +4873,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731607058.1312833</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731607058.7914412</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607058.1312833.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607058.7914412.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2786.5</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2789.85</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4459,51 +4931,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731607058.8933408</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731607059.0342922</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607058.8933408.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607059.0342922.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2788.75</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2790.45</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1.699999999999818</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4511,51 +4989,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731607059.727543</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731607060.7967558</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607059.727543.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607060.7967558.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2790.5</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2794.25</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>3.75</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4563,95 +5047,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731607061.540276</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731607061.540276.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+          <t>./test_images/MXI1731607061.540276.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2792.4</v>
       </c>
-      <c r="J81" t="n">
-        <v>2792.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.799999999999727</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731607064.6592345</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731607066.8109422</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607064.6592345.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607066.8109422.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>591.6</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>594.1</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -4659,51 +5155,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731607069.068376</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731607070.277247</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607069.068376.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607070.277247.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>595.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>596.5</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4711,51 +5213,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731607074.1406057</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731607076.5620928</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607074.1406057.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607076.5620928.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>595.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>591</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-4.299999999999955</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -4763,51 +5271,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731607076.5790434</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731607077.0141513</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607076.5790434.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607077.0141513.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>591</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>590.2</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4815,51 +5329,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731607078.4313645</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731607080.9859192</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607078.4313645.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607080.9859192.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>589.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>589.6</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4867,51 +5387,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731607082.4675906</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731607084.7374907</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607082.4675906.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607084.7374907.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>589.8</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>589.9</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4919,51 +5445,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731607087.1676805</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731607088.5880601</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607087.1676805.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607088.5880601.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>592.5</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>594</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.5</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5025,19 +5557,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.4149999999999991</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.03772727272727265</v>
       </c>
       <c r="E2" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -5047,19 +5579,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.249999999999091</v>
+        <v>10.04999999999882</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7249999999999091</v>
+        <v>1.004999999999882</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -5069,19 +5601,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1379999999999963</v>
+        <v>0.1519999999999957</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01724999999999954</v>
+        <v>0.01899999999999946</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9799999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -5135,16 +5667,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31</v>
+        <v>-30.5</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.428571428571429</v>
+        <v>-4.357142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4500000000000001</v>
+        <v>-0.4400000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>-0.06</v>
@@ -5223,19 +5755,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.499999999999943</v>
+        <v>3.999999999999943</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5833333333333238</v>
+        <v>0.6666666666666572</v>
       </c>
       <c r="E11" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
